--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asens\Documents\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B0671831-3601-49D8-96CA-ABAFD564505C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B32FD34-4BE9-46C4-8234-B8A4A556CA31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{3D318757-04AE-4E2E-8B14-5F4A89483457}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{3D318757-04AE-4E2E-8B14-5F4A89483457}"/>
   </bookViews>
   <sheets>
     <sheet name="C60_db" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Row</t>
   </si>
@@ -55,9 +55,6 @@
     <t>7digis</t>
   </si>
   <si>
-    <t>jj100device</t>
-  </si>
-  <si>
     <t>JM100</t>
   </si>
   <si>
@@ -67,9 +64,6 @@
     <t>JJ1000000</t>
   </si>
   <si>
-    <t xml:space="preserve">JJ100 </t>
-  </si>
-  <si>
     <t>JM199</t>
   </si>
   <si>
@@ -77,9 +71,6 @@
   </si>
   <si>
     <t>jj7654321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JJ150 </t>
   </si>
   <si>
     <t>Faulty</t>
@@ -441,10 +432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E625566-E4FC-4A9C-8613-91327C881580}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -487,10 +478,10 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F2" s="1">
         <v>41092</v>
@@ -507,10 +498,10 @@
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F3" s="1">
         <v>41092</v>
@@ -527,32 +518,12 @@
         <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F4" s="1">
-        <v>41092</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>34234</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F5" s="1">
         <v>41092</v>
       </c>
     </row>
@@ -565,7 +536,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31FEEFD1-A34C-4BEA-8E0E-F023513EBC37}">
   <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -573,17 +544,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
